--- a/biology/Zoologie/Articulata/Articulata.xlsx
+++ b/biology/Zoologie/Articulata/Articulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Articulata est une sous-classe de crinoïdes, qui contient selon certaines classifications jusqu'à 50 familles. 
 Mais la répartition en ordres et sous-ordres varie grandement en fonction des classifications.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le calice est composé d'ossicules radiales et basales sans plaques anale chez l'adulte. Les plaques infrabasales, quoique présentes chez certains clades fossiles, sont absents ou relictuels dans les espèces actuelles. Le bouche est exposée au centre de la surface du tegmen. Les nervures axiales sont comprises dans ces canaux pénétrant les plaques basales, radiales et brachiales. Les articulations des bras peuvent être musculaires ou ligamentaires, et les bras portent toujours des pinnules[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le calice est composé d'ossicules radiales et basales sans plaques anale chez l'adulte. Les plaques infrabasales, quoique présentes chez certains clades fossiles, sont absents ou relictuels dans les espèces actuelles. Le bouche est exposée au centre de la surface du tegmen. Les nervures axiales sont comprises dans ces canaux pénétrant les plaques basales, radiales et brachiales. Les articulations des bras peuvent être musculaires ou ligamentaires, et les bras portent toujours des pinnules.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des ordres et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Antedon mediterranea, une Antedonidae
